--- a/biology/Botanique/Cassier/Cassier.xlsx
+++ b/biology/Botanique/Cassier/Cassier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vachellia farnesiana
 Le Cassier (Vachellia farnesiana, anciennement Acacia farnesiana), appelé parfois Cassie ancienne, Cassie du Levant, Mimosa de Farnèse, est une espèce d'arbuste. Il appartient à la famille des Mimosaceae selon la classification classique, ou à celle des Fabaceae, sous-famille des Mimosoideae, selon la classification phylogénétique.
@@ -516,14 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-C'est un arbuste[1] qui atteint une hauteur de 8 à 10 m environ. Les branches retombantes sont armées de longues épines stipulaires, droites et blanches, de 1,5 à 5 cm.
-Feuilles
-Les feuilles sont composées et bipennées, à 2 à 8 paires de pennes. Chaque penne porte 10 à 25 paires de folioles et chaque foliole peut atteindre une longueur de 5 à 7 mm environ pour 1,5 mm de largeur. Le pétiole de 4 à 10 cm porte une petite glande.
-Fleurs
-Il possède une floraison en glomérules (12 mm de diamètre) de fleurs jaunes, très parfumées.
-Fruits
-Les fruits sont des gousses cylindriques, brunes à noirâtres d'environ 7 cm de longueur. Les graines, brunes, mesurent jusqu'à 7 mm de longueur[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste qui atteint une hauteur de 8 à 10 m environ. Les branches retombantes sont armées de longues épines stipulaires, droites et blanches, de 1,5 à 5 cm.
 </t>
         </is>
       </c>
@@ -549,83 +560,308 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont composées et bipennées, à 2 à 8 paires de pennes. Chaque penne porte 10 à 25 paires de folioles et chaque foliole peut atteindre une longueur de 5 à 7 mm environ pour 1,5 mm de largeur. Le pétiole de 4 à 10 cm porte une petite glande.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cassier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il possède une floraison en glomérules (12 mm de diamètre) de fleurs jaunes, très parfumées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cassier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des gousses cylindriques, brunes à noirâtres d'environ 7 cm de longueur. Les graines, brunes, mesurent jusqu'à 7 mm de longueur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cassier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'Amérique tropicale, et répandue par l'homme dans d'autres zones chaudes du monde, comme dans de nombreux pays d'Afrique, et en Australie.
 Elle est commune dans les Antilles françaises.
 Peu exigeant en ce qui concerne la nature du sol, cet arbuste préfère les situations ensoleillées et résiste à la sécheresse. Aux Antilles, on le trouve dans les fourrés épineux de la série xérophile.
-Caractère envahissant
-Vachellia farnesiana peut être envahissant, par exemple en Nouvelle-Calédonie où il a été introduit comme plante fourragère au même titre que d'autres acacias[3],[4]. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente  ou  son achat[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cassier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cassier</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cassier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vachellia farnesiana peut être envahissant, par exemple en Nouvelle-Calédonie où il a été introduit comme plante fourragère au même titre que d'autres acacias,. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente  ou  son achat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cassier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parfumerie
-Cette espèce est cultivée dans le Midi de la France pour extraire de ses fleurs une huile utilisée en parfumerie[4]. Cette huile est relativement riche en farnésol, molécule odorante dont le nom vient de cette plante (sous son appellation de Mimosa de Farnèse).
-Élevage
-En Australie, le feuillage de cet arbuste est parfois utilisé pour nourrir le bétail. Ses gousses vertes lui apportent un appoint protéique[4].
-Ornement
-Il peut être planté seul ou en bosquet, mais il est aussi utilisé pour constituer des haies[2]. Celles-ci, grâce aux épines de l'espèce, peuvent avoir un caractère défensif[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cassier</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cassier</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Parfumerie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est cultivée dans le Midi de la France pour extraire de ses fleurs une huile utilisée en parfumerie. Cette huile est relativement riche en farnésol, molécule odorante dont le nom vient de cette plante (sous son appellation de Mimosa de Farnèse).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cassier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassier</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Australie, le feuillage de cet arbuste est parfois utilisé pour nourrir le bétail. Ses gousses vertes lui apportent un appoint protéique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cassier</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassier</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ornement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut être planté seul ou en bosquet, mais il est aussi utilisé pour constituer des haies. Celles-ci, grâce aux épines de l'espèce, peuvent avoir un caractère défensif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cassier</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cassier</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (20 juillet 2017)[6] :
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (20 juillet 2017) :
 variété Vachellia farnesiana var. farnesiana
 variété Vachellia farnesiana var. minuta (M.E.Jones) Seigler &amp; Ebinger
 variété Vachellia farnesiana var. pinetorum (F.J.Herm.) Seigler &amp; Ebinger</t>
